--- a/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
+++ b/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1985,7 +1986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,17 +1997,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2016,13 +2037,2451 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银汇利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>55.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004271</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>39</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
+++ b/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4428,7 +4429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4439,17 +4440,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4459,14 +4480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.48</v>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4475,13 +4518,1369 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>39</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
+++ b/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5811,7 +5812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5822,17 +5823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5842,14 +5863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5858,14 +5901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.48</v>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5874,13 +5939,891 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005865</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>39</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
+++ b/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>2.31</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>1.48</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -549,6 +566,856 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1474,7 +2341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2856,7 +3723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5298,7 +6165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
+++ b/数据整理/stocks/A股/上证主板/601728-中国电信.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -566,6 +583,3290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3790</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011086</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011087</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011816</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通多元收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010840</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +4716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2341,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3723,7 +7024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6165,7 +9466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
